--- a/server/input.xlsx
+++ b/server/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91755\Desktop\FreeLancing Work\college software\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB474051-E499-4077-8425-5E7D1746F03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8E3DAC-3B12-42E1-9F21-EC9C0EA4E872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AAD8041E-5F49-4F1A-9271-BBBF0764B4E2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Prelim</t>
   </si>
@@ -44,12 +44,18 @@
   <si>
     <t>Endsem</t>
   </si>
+  <si>
+    <t>Insem</t>
+  </si>
+  <si>
+    <t>Endsem2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +76,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -80,7 +92,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,16 +169,28 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -483,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E61521-5E24-4F72-93D3-2A74125DFE2D}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="109" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -494,7 +518,7 @@
     <col min="4" max="4" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -510,14 +534,20 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>15</v>
       </c>
@@ -535,43 +565,55 @@
       <c r="E2" s="5">
         <v>8</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <f t="shared" ref="F2:F33" si="0">SUM(E2+40)</f>
         <v>48</v>
       </c>
-      <c r="G2" s="2">
-        <f>SUM(F2+5)</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G2" s="9">
+        <v>54</v>
+      </c>
+      <c r="H2" s="1">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <f>G2+10</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B66" si="1">SUM(A3+5)</f>
+        <f t="shared" ref="B3:B64" si="1">SUM(A3+5)</f>
         <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D66" si="2">SUM(C3+5)</f>
+        <f t="shared" ref="D3:D64" si="2">SUM(C3+5)</f>
         <v>5</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G66" si="3">SUM(F3+5)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G3" s="10">
+        <v>47</v>
+      </c>
+      <c r="H3" s="1">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="3">G3+10</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>17</v>
       </c>
@@ -589,16 +631,22 @@
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G4" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G4" s="11">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -616,16 +664,22 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="G5" s="2">
-        <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5" s="12">
+        <v>30</v>
+      </c>
+      <c r="H5" s="1">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>16</v>
       </c>
@@ -643,16 +697,22 @@
       <c r="E6" s="2">
         <v>20</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G6" s="2">
-        <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G6" s="12">
+        <v>41</v>
+      </c>
+      <c r="H6" s="1">
+        <v>17</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -670,16 +730,22 @@
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G7" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G7" s="12">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1">
+        <v>22</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>22</v>
       </c>
@@ -697,16 +763,22 @@
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G8" s="9">
+        <v>49</v>
+      </c>
+      <c r="H8" s="1">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -724,16 +796,22 @@
       <c r="E9" s="2">
         <v>18</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="G9" s="2">
-        <f t="shared" si="3"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G9" s="12">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>15</v>
       </c>
@@ -751,16 +829,22 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G10" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G10" s="9">
+        <v>53</v>
+      </c>
+      <c r="H10" s="1">
+        <v>26</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -778,16 +862,22 @@
       <c r="E11" s="2">
         <v>25</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="G11" s="2">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G11" s="9">
+        <v>46</v>
+      </c>
+      <c r="H11" s="1">
+        <v>24</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>20</v>
       </c>
@@ -805,16 +895,22 @@
       <c r="E12" s="2">
         <v>22</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="G12" s="2">
-        <f t="shared" si="3"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G12" s="12">
+        <v>50</v>
+      </c>
+      <c r="H12" s="1">
+        <v>23</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>16</v>
       </c>
@@ -832,16 +928,22 @@
       <c r="E13" s="2">
         <v>29</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="G13" s="2">
-        <f t="shared" si="3"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G13" s="11">
+        <v>38</v>
+      </c>
+      <c r="H13" s="1">
+        <v>22</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>20</v>
       </c>
@@ -859,16 +961,22 @@
       <c r="E14" s="2">
         <v>17</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="G14" s="2">
-        <f t="shared" si="3"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G14" s="9">
+        <v>56</v>
+      </c>
+      <c r="H14" s="1">
+        <v>22</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>21</v>
       </c>
@@ -886,16 +994,22 @@
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G15" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G15" s="12">
+        <v>44</v>
+      </c>
+      <c r="H15" s="1">
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>20</v>
       </c>
@@ -913,16 +1027,22 @@
       <c r="E16" s="2">
         <v>25</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="G16" s="2">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G16" s="11">
+        <v>44</v>
+      </c>
+      <c r="H16" s="1">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -940,16 +1060,22 @@
       <c r="E17" s="2">
         <v>17</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="6">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="G17" s="2">
-        <f t="shared" si="3"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G17" s="12">
+        <v>41</v>
+      </c>
+      <c r="H17" s="1">
+        <v>18</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -967,16 +1093,22 @@
       <c r="E18" s="2">
         <v>20</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="6">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G18" s="2">
-        <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G18" s="12">
+        <v>49</v>
+      </c>
+      <c r="H18" s="1">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -994,16 +1126,22 @@
       <c r="E19" s="2">
         <v>22</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="G19" s="2">
-        <f t="shared" si="3"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G19" s="12">
+        <v>50</v>
+      </c>
+      <c r="H19" s="1">
+        <v>24</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1021,16 +1159,22 @@
       <c r="E20" s="2">
         <v>15</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="G20" s="2">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G20" s="12">
+        <v>36</v>
+      </c>
+      <c r="H20" s="1">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>14</v>
       </c>
@@ -1048,16 +1192,22 @@
       <c r="E21" s="2">
         <v>19</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="6">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="G21" s="2">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G21" s="12">
+        <v>42</v>
+      </c>
+      <c r="H21" s="1">
+        <v>19</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>17</v>
       </c>
@@ -1075,16 +1225,22 @@
       <c r="E22" s="2">
         <v>0</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G22" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G22" s="12">
+        <v>50</v>
+      </c>
+      <c r="H22" s="1">
+        <v>22</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -1102,16 +1258,22 @@
       <c r="E23" s="2">
         <v>0</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G23" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G23" s="9">
+        <v>33</v>
+      </c>
+      <c r="H23" s="1">
+        <v>16</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>15</v>
       </c>
@@ -1129,16 +1291,22 @@
       <c r="E24" s="2">
         <v>0</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G24" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G24" s="6">
+        <v>20</v>
+      </c>
+      <c r="H24" s="1">
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>12</v>
       </c>
@@ -1156,16 +1324,22 @@
       <c r="E25" s="2">
         <v>15</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="6">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="G25" s="2">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G25" s="12">
+        <v>38</v>
+      </c>
+      <c r="H25" s="1">
+        <v>21</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>15</v>
       </c>
@@ -1183,16 +1357,22 @@
       <c r="E26" s="2">
         <v>0</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="9">
+        <v>35</v>
+      </c>
+      <c r="H26" s="1">
+        <v>12</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>11</v>
       </c>
@@ -1210,16 +1390,22 @@
       <c r="E27" s="2">
         <v>0</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G27" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G27" s="9">
+        <v>30</v>
+      </c>
+      <c r="H27" s="1">
+        <v>12</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>11</v>
       </c>
@@ -1237,16 +1423,22 @@
       <c r="E28" s="2">
         <v>0</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G28" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G28" s="9">
+        <v>46</v>
+      </c>
+      <c r="H28" s="1">
+        <v>17</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>20</v>
       </c>
@@ -1264,16 +1456,22 @@
       <c r="E29" s="2">
         <v>20</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="6">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G29" s="2">
-        <f t="shared" si="3"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G29" s="12">
+        <v>43</v>
+      </c>
+      <c r="H29" s="1">
+        <v>12</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1291,16 +1489,22 @@
       <c r="E30" s="2">
         <v>2</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="6">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="G30" s="2">
-        <f t="shared" si="3"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G30" s="12">
+        <v>30</v>
+      </c>
+      <c r="H30" s="1">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>22</v>
       </c>
@@ -1318,16 +1522,22 @@
       <c r="E31" s="2">
         <v>0</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G31" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G31" s="12">
+        <v>37</v>
+      </c>
+      <c r="H31" s="1">
+        <v>12</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>15</v>
       </c>
@@ -1345,16 +1555,22 @@
       <c r="E32" s="2">
         <v>22</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="6">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="G32" s="2">
-        <f t="shared" si="3"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G32" s="12">
+        <v>36</v>
+      </c>
+      <c r="H32" s="1">
+        <v>17</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>16</v>
       </c>
@@ -1372,16 +1588,22 @@
       <c r="E33" s="2">
         <v>13</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="G33" s="2">
-        <f t="shared" si="3"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G33" s="12">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1">
+        <v>11</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>15</v>
       </c>
@@ -1399,16 +1621,22 @@
       <c r="E34" s="2">
         <v>10</v>
       </c>
-      <c r="F34" s="8">
-        <f t="shared" ref="F34:F65" si="4">SUM(E34+40)</f>
+      <c r="F34" s="6">
+        <f t="shared" ref="F34:F63" si="4">SUM(E34+40)</f>
         <v>50</v>
       </c>
-      <c r="G34" s="2">
-        <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G34" s="12">
+        <v>38</v>
+      </c>
+      <c r="H34" s="1">
+        <v>19</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>18</v>
       </c>
@@ -1426,16 +1654,22 @@
       <c r="E35" s="2">
         <v>0</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="6">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="G35" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G35" s="9">
+        <v>47</v>
+      </c>
+      <c r="H35" s="1">
+        <v>21</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>16</v>
       </c>
@@ -1453,16 +1687,22 @@
       <c r="E36" s="2">
         <v>15</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="6">
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="G36" s="2">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G36" s="11">
+        <v>47</v>
+      </c>
+      <c r="H36" s="1">
+        <v>21</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>13</v>
       </c>
@@ -1480,16 +1720,22 @@
       <c r="E37" s="2">
         <v>22</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="6">
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="G37" s="2">
-        <f t="shared" si="3"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G37" s="9">
+        <v>48</v>
+      </c>
+      <c r="H37" s="1">
+        <v>22</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>16</v>
       </c>
@@ -1507,16 +1753,22 @@
       <c r="E38" s="2">
         <v>14</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="6">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="G38" s="2">
-        <f t="shared" si="3"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G38" s="9">
+        <v>50</v>
+      </c>
+      <c r="H38" s="1">
+        <v>18</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -1534,16 +1786,22 @@
       <c r="E39" s="2">
         <v>25</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="6">
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="G39" s="2">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G39" s="12">
+        <v>34</v>
+      </c>
+      <c r="H39" s="1">
+        <v>21</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>18</v>
       </c>
@@ -1561,16 +1819,22 @@
       <c r="E40" s="2">
         <v>25</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="6">
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="G40" s="2">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G40" s="9">
+        <v>51</v>
+      </c>
+      <c r="H40" s="1">
+        <v>18</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>16</v>
       </c>
@@ -1588,16 +1852,22 @@
       <c r="E41" s="2">
         <v>0</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="6">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="G41" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G41" s="12">
+        <v>47</v>
+      </c>
+      <c r="H41" s="1">
+        <v>16</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>21</v>
       </c>
@@ -1615,16 +1885,22 @@
       <c r="E42" s="2">
         <v>6</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="6">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="G42" s="2">
-        <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G42" s="9">
+        <v>38</v>
+      </c>
+      <c r="H42" s="1">
+        <v>16</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -1642,16 +1918,22 @@
       <c r="E43" s="2">
         <v>0</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="6">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="G43" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G43" s="9">
+        <v>43</v>
+      </c>
+      <c r="H43" s="1">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>15</v>
       </c>
@@ -1669,16 +1951,22 @@
       <c r="E44" s="2">
         <v>18</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="6">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="G44" s="2">
-        <f t="shared" si="3"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G44" s="11">
+        <v>51</v>
+      </c>
+      <c r="H44" s="1">
+        <v>23</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>8</v>
       </c>
@@ -1696,16 +1984,22 @@
       <c r="E45" s="2">
         <v>0</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="6">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="G45" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G45" s="9">
+        <v>40</v>
+      </c>
+      <c r="H45" s="1">
+        <v>22</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>18</v>
       </c>
@@ -1723,16 +2017,22 @@
       <c r="E46" s="2">
         <v>2</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="6">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="G46" s="2">
-        <f t="shared" si="3"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G46" s="12">
+        <v>54</v>
+      </c>
+      <c r="H46" s="1">
+        <v>23</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>20</v>
       </c>
@@ -1750,16 +2050,22 @@
       <c r="E47" s="2">
         <v>0</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="6">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="G47" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G47" s="9">
+        <v>51</v>
+      </c>
+      <c r="H47" s="1">
+        <v>21</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>7</v>
       </c>
@@ -1777,16 +2083,22 @@
       <c r="E48" s="2">
         <v>5</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="6">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="G48" s="2">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G48" s="12">
+        <v>44</v>
+      </c>
+      <c r="H48" s="1">
+        <v>26</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>16</v>
       </c>
@@ -1804,16 +2116,22 @@
       <c r="E49" s="2">
         <v>0</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="6">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="G49" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G49" s="11">
+        <v>36</v>
+      </c>
+      <c r="H49" s="1">
+        <v>14</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>15</v>
       </c>
@@ -1831,16 +2149,22 @@
       <c r="E50" s="2">
         <v>0</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="6">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="G50" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G50" s="12">
+        <v>39</v>
+      </c>
+      <c r="H50" s="1">
+        <v>18</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>20</v>
       </c>
@@ -1858,16 +2182,22 @@
       <c r="E51" s="2">
         <v>7</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="6">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="G51" s="2">
-        <f t="shared" si="3"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G51" s="9">
+        <v>47</v>
+      </c>
+      <c r="H51" s="1">
+        <v>19</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>21</v>
       </c>
@@ -1885,16 +2215,22 @@
       <c r="E52" s="2">
         <v>13</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="6">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
-      <c r="G52" s="2">
-        <f t="shared" si="3"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G52" s="12">
+        <v>47</v>
+      </c>
+      <c r="H52" s="1">
+        <v>20</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>15</v>
       </c>
@@ -1912,97 +2248,121 @@
       <c r="E53" s="2">
         <v>18</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="6">
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="G53" s="2">
-        <f t="shared" si="3"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="6">
+      <c r="G53" s="9">
+        <v>47</v>
+      </c>
+      <c r="H53" s="1">
         <v>18</v>
       </c>
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>18</v>
+      </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C54" s="7">
-        <v>14</v>
+      <c r="C54" s="2">
+        <v>18</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="E54" s="7">
-        <v>6</v>
-      </c>
-      <c r="F54" s="8">
+        <v>23</v>
+      </c>
+      <c r="E54" s="2">
+        <v>15</v>
+      </c>
+      <c r="F54" s="6">
         <f t="shared" si="4"/>
-        <v>46</v>
-      </c>
-      <c r="G54" s="2">
-        <f t="shared" si="3"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="6">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="G54" s="10">
+        <v>54</v>
+      </c>
+      <c r="H54" s="1">
+        <v>18</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>18</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C55" s="7">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="C55" s="2">
+        <v>15</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E55" s="7">
-        <v>0</v>
-      </c>
-      <c r="F55" s="8">
+        <v>20</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="6">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="10">
+        <v>47</v>
+      </c>
+      <c r="H55" s="1">
+        <v>24</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>21</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C56" s="2">
+        <v>21</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="E56" s="2">
+        <v>4</v>
+      </c>
+      <c r="F56" s="6">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="G56" s="12">
+        <v>35</v>
+      </c>
+      <c r="H56" s="1">
+        <v>23</v>
+      </c>
+      <c r="I56">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <v>18</v>
-      </c>
-      <c r="B56" s="1">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="C56" s="2">
-        <v>18</v>
-      </c>
-      <c r="D56" s="2">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="E56" s="2">
-        <v>15</v>
-      </c>
-      <c r="F56" s="8">
-        <f t="shared" si="4"/>
-        <v>55</v>
-      </c>
-      <c r="G56" s="2">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>18</v>
       </c>
@@ -2011,1750 +2371,2074 @@
         <v>23</v>
       </c>
       <c r="C57" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E57" s="2">
-        <v>0</v>
-      </c>
-      <c r="F57" s="8">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="G57" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>21</v>
-      </c>
-      <c r="B58" s="1">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="C58" s="2">
-        <v>21</v>
-      </c>
-      <c r="D58" s="2">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="E58" s="2">
-        <v>4</v>
-      </c>
-      <c r="F58" s="8">
-        <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="G58" s="2">
-        <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>18</v>
-      </c>
-      <c r="B59" s="1">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="C59" s="2">
-        <v>16</v>
-      </c>
-      <c r="D59" s="2">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="E59" s="2">
         <v>2</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F57" s="6">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="G59" s="2">
-        <f t="shared" si="3"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+      <c r="G57" s="12">
+        <v>49</v>
+      </c>
+      <c r="H57" s="1">
         <v>19</v>
       </c>
-      <c r="B60" s="1">
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>19</v>
+      </c>
+      <c r="B58" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C60" s="2">
-        <v>15</v>
-      </c>
-      <c r="D60" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="E60" s="2">
+      <c r="C58" s="2">
+        <v>15</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E58" s="2">
         <v>2</v>
       </c>
-      <c r="F60" s="8">
+      <c r="F58" s="6">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="G60" s="2">
-        <f t="shared" si="3"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>15</v>
-      </c>
-      <c r="B61" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C61" s="2">
+      <c r="G58" s="9">
+        <v>53</v>
+      </c>
+      <c r="H58" s="1">
+        <v>18</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>15</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C59" s="2">
         <v>12</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D59" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E59" s="2">
         <v>8</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F59" s="6">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="G61" s="2">
-        <f t="shared" si="3"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>20</v>
-      </c>
-      <c r="B62" s="1">
+      <c r="G59" s="9">
+        <v>38</v>
+      </c>
+      <c r="H59" s="1">
+        <v>16</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>20</v>
+      </c>
+      <c r="B60" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C60" s="2">
         <v>16</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D60" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E60" s="2">
         <v>10</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F60" s="6">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="G62" s="2">
-        <f t="shared" si="3"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+      <c r="G60" s="12">
+        <v>34</v>
+      </c>
+      <c r="H60" s="1">
+        <v>23</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
         <v>16</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B61" s="1">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C61" s="2">
         <v>24</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D61" s="2">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E61" s="2">
         <v>9</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F61" s="6">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="G63" s="2">
-        <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+      <c r="G61" s="12">
+        <v>41</v>
+      </c>
+      <c r="H61" s="1">
+        <v>22</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
         <v>2</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B62" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C62" s="2">
         <v>24</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D62" s="2">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E62" s="2">
         <v>14</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F62" s="6">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="G64" s="2">
-        <f t="shared" si="3"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+      <c r="G62" s="11">
+        <v>45</v>
+      </c>
+      <c r="H62" s="1">
+        <v>23</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
         <v>22</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B63" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C63" s="2">
         <v>22</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D63" s="2">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E63" s="2">
         <v>8</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F63" s="6">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="G65" s="2">
-        <f t="shared" si="3"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
-        <v>15</v>
-      </c>
-      <c r="B66" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="C66" s="2">
+      <c r="G63" s="12">
+        <v>42</v>
+      </c>
+      <c r="H63" s="1">
+        <v>22</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>15</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C64" s="2">
         <v>18</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D64" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E64" s="2">
         <v>3</v>
       </c>
-      <c r="F66" s="8">
-        <f t="shared" ref="F66:F97" si="5">SUM(E66+40)</f>
+      <c r="F64" s="6">
+        <f t="shared" ref="F64:F95" si="5">SUM(E64+40)</f>
         <v>43</v>
       </c>
-      <c r="G66" s="2">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+      <c r="G64" s="6">
+        <v>19</v>
+      </c>
+      <c r="H64" s="1">
+        <v>12</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
         <v>1</v>
       </c>
-      <c r="B67" s="1">
-        <f t="shared" ref="B67:B121" si="6">SUM(A67+5)</f>
+      <c r="B65" s="1">
+        <f t="shared" ref="B65:B119" si="6">SUM(A65+5)</f>
         <v>6</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C65" s="2">
         <v>4</v>
       </c>
-      <c r="D67" s="2">
-        <f t="shared" ref="D67:D121" si="7">SUM(C67+5)</f>
+      <c r="D65" s="2">
+        <f t="shared" ref="D65:D119" si="7">SUM(C65+5)</f>
         <v>9</v>
       </c>
-      <c r="E67" s="2">
-        <v>0</v>
-      </c>
-      <c r="F67" s="8">
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="6">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="G67" s="2">
-        <f t="shared" ref="G67:G121" si="8">SUM(F67+5)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
+      <c r="G65" s="12">
+        <v>30</v>
+      </c>
+      <c r="H65" s="1">
+        <v>10</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
         <v>6</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B66" s="1">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C66" s="2">
         <v>4</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D66" s="2">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E66" s="2">
         <v>21</v>
       </c>
-      <c r="F68" s="8">
+      <c r="F66" s="6">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="G68" s="2">
-        <f t="shared" si="8"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>15</v>
-      </c>
-      <c r="B69" s="1">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="C69" s="2">
+      <c r="G66" s="12">
+        <v>55</v>
+      </c>
+      <c r="H66" s="1">
+        <v>25</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>15</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="C67" s="2">
         <v>3</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D67" s="2">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E67" s="2">
         <v>8</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F67" s="6">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="G69" s="2">
-        <f t="shared" si="8"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
+      <c r="G67" s="9">
+        <v>47</v>
+      </c>
+      <c r="H67" s="1">
+        <v>12</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I119" si="8">G67+10</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
         <v>17</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B68" s="1">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="C70" s="2">
-        <v>0</v>
-      </c>
-      <c r="D70" s="2">
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E68" s="2">
         <v>8</v>
       </c>
-      <c r="F70" s="8">
+      <c r="F68" s="6">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="G70" s="2">
-        <f t="shared" si="8"/>
+      <c r="G68" s="12">
         <v>53</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
+      <c r="H68" s="1">
+        <v>19</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
         <v>12</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B69" s="1">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C69" s="2">
         <v>14</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D69" s="2">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="E71" s="2">
-        <v>15</v>
-      </c>
-      <c r="F71" s="8">
+      <c r="E69" s="2">
+        <v>15</v>
+      </c>
+      <c r="F69" s="6">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="G71" s="2">
-        <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+      <c r="G69" s="12">
+        <v>47</v>
+      </c>
+      <c r="H69" s="1">
+        <v>19</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="8"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
         <v>22</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B70" s="1">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="C72" s="2">
-        <v>0</v>
-      </c>
-      <c r="D72" s="2">
+      <c r="C70" s="2">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E70" s="2">
         <v>29</v>
       </c>
-      <c r="F72" s="8">
+      <c r="F70" s="6">
         <f t="shared" si="5"/>
         <v>69</v>
       </c>
-      <c r="G72" s="2">
-        <f t="shared" si="8"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+      <c r="G70" s="9">
+        <v>49</v>
+      </c>
+      <c r="H70" s="1">
+        <v>25</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="8"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
         <v>17</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B71" s="1">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="C73" s="2">
-        <v>15</v>
-      </c>
-      <c r="D73" s="2">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="E73" s="2">
+      <c r="C71" s="2">
+        <v>15</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="E71" s="2">
         <v>12</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F71" s="6">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
-      <c r="G73" s="2">
-        <f t="shared" si="8"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+      <c r="G71" s="12">
+        <v>50</v>
+      </c>
+      <c r="H71" s="1">
+        <v>25</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
         <v>23</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B72" s="1">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C72" s="2">
         <v>21</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D72" s="2">
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E72" s="2">
         <v>28</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F72" s="6">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="G74" s="2">
-        <f t="shared" si="8"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+      <c r="G72" s="12">
+        <v>48</v>
+      </c>
+      <c r="H72" s="1">
+        <v>18</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
         <v>13</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B73" s="1">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C73" s="2">
         <v>7</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D73" s="2">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="E75" s="2">
-        <v>0</v>
-      </c>
-      <c r="F75" s="8">
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73" s="6">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="G75" s="2">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+      <c r="G73" s="12">
+        <v>44</v>
+      </c>
+      <c r="H73" s="1">
+        <v>17</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
         <v>12</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B74" s="1">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C74" s="2">
         <v>7</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D74" s="2">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E74" s="2">
         <v>5</v>
       </c>
-      <c r="F76" s="8">
+      <c r="F74" s="6">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="G76" s="2">
-        <f t="shared" si="8"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+      <c r="G74" s="6">
+        <v>24</v>
+      </c>
+      <c r="H74" s="1">
+        <v>10</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
         <v>12</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B75" s="1">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="C77" s="2">
-        <v>20</v>
-      </c>
-      <c r="D77" s="2">
+      <c r="C75" s="2">
+        <v>20</v>
+      </c>
+      <c r="D75" s="2">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E75" s="2">
         <v>13</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F75" s="6">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G75" s="12">
+        <v>48</v>
+      </c>
+      <c r="H75" s="1">
+        <v>25</v>
+      </c>
+      <c r="I75">
         <f t="shared" si="8"/>
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+    <row r="76" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
         <v>22</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B76" s="1">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C76" s="2">
         <v>17</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D76" s="2">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E76" s="2">
         <v>17</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F76" s="6">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G76" s="9">
+        <v>52</v>
+      </c>
+      <c r="H76" s="1">
+        <v>24</v>
+      </c>
+      <c r="I76">
         <f t="shared" si="8"/>
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+    <row r="77" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
         <v>23</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B77" s="1">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C77" s="2">
         <v>19</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D77" s="2">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="E79" s="2">
-        <v>15</v>
-      </c>
-      <c r="F79" s="8">
+      <c r="E77" s="2">
+        <v>15</v>
+      </c>
+      <c r="F77" s="6">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="G79" s="2">
-        <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+      <c r="G77" s="12">
+        <v>46</v>
+      </c>
+      <c r="H77" s="1">
+        <v>24</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
         <v>14</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B78" s="1">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C78" s="2">
         <v>18</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D78" s="2">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E78" s="2">
         <v>5</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F78" s="6">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="G80" s="2">
-        <f t="shared" si="8"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+      <c r="G78" s="12">
+        <v>51</v>
+      </c>
+      <c r="H78" s="1">
+        <v>19</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
         <v>16</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B79" s="1">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="C81" s="2">
-        <v>0</v>
-      </c>
-      <c r="D81" s="2">
+      <c r="C79" s="2">
+        <v>0</v>
+      </c>
+      <c r="D79" s="2">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E79" s="2">
         <v>11</v>
       </c>
-      <c r="F81" s="8">
+      <c r="F79" s="6">
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
-      <c r="G81" s="2">
-        <f t="shared" si="8"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
+      <c r="G79" s="12">
+        <v>33</v>
+      </c>
+      <c r="H79" s="1">
+        <v>16</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
         <v>12</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B80" s="1">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="C82" s="2">
-        <v>0</v>
-      </c>
-      <c r="D82" s="2">
+      <c r="C80" s="2">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E80" s="2">
         <v>12</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F80" s="6">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G80" s="12">
+        <v>47</v>
+      </c>
+      <c r="H80" s="1">
+        <v>25</v>
+      </c>
+      <c r="I80">
         <f t="shared" si="8"/>
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
-        <v>20</v>
-      </c>
-      <c r="B83" s="1">
+    <row r="81" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>20</v>
+      </c>
+      <c r="B81" s="1">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C81" s="2">
         <v>5</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D81" s="2">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="E83" s="2">
-        <v>0</v>
-      </c>
-      <c r="F83" s="8">
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+      <c r="F81" s="6">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G81" s="11">
+        <v>35</v>
+      </c>
+      <c r="H81" s="1">
+        <v>14</v>
+      </c>
+      <c r="I81">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
+    <row r="82" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
         <v>17</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B82" s="1">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C82" s="2">
         <v>11</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D82" s="2">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E82" s="2">
         <v>4</v>
       </c>
-      <c r="F84" s="8">
+      <c r="F82" s="6">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="G84" s="2">
-        <f t="shared" si="8"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
+      <c r="G82" s="9">
+        <v>48</v>
+      </c>
+      <c r="H82" s="1">
+        <v>15</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
         <v>21</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B83" s="1">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="C85" s="2">
-        <v>0</v>
-      </c>
-      <c r="D85" s="2">
+      <c r="C83" s="2">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E83" s="2">
         <v>8</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F83" s="6">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="G85" s="2">
-        <f t="shared" si="8"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
-        <v>20</v>
-      </c>
-      <c r="B86" s="1">
+      <c r="G83" s="11">
+        <v>38</v>
+      </c>
+      <c r="H83" s="1">
+        <v>21</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>20</v>
+      </c>
+      <c r="B84" s="1">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="C86" s="2">
-        <v>0</v>
-      </c>
-      <c r="D86" s="2">
+      <c r="C84" s="2">
+        <v>0</v>
+      </c>
+      <c r="D84" s="2">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E84" s="2">
         <v>7</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F84" s="6">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="G86" s="2">
-        <f t="shared" si="8"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
+      <c r="G84" s="9">
+        <v>45</v>
+      </c>
+      <c r="H84" s="1">
+        <v>27</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
         <v>17</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B85" s="1">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C85" s="2">
         <v>11</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D85" s="2">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E85" s="2">
         <v>10</v>
       </c>
-      <c r="F87" s="8">
+      <c r="F85" s="6">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="G87" s="2">
-        <f t="shared" si="8"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
+      <c r="G85" s="9">
+        <v>49</v>
+      </c>
+      <c r="H85" s="1">
+        <v>20</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="8"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
         <v>19</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B86" s="1">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C86" s="2">
         <v>10</v>
       </c>
-      <c r="D88" s="2">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="E88" s="2">
+      <c r="D86" s="2">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="E86" s="2">
         <v>8</v>
       </c>
-      <c r="F88" s="8">
+      <c r="F86" s="6">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="G88" s="2">
-        <f t="shared" si="8"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
+      <c r="G86" s="12">
+        <v>52</v>
+      </c>
+      <c r="H86" s="1">
+        <v>23</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
         <v>9</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B87" s="1">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C87" s="2">
         <v>8</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D87" s="2">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E87" s="2">
         <v>5</v>
       </c>
-      <c r="F89" s="8">
+      <c r="F87" s="6">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="G89" s="2">
-        <f t="shared" si="8"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
+      <c r="G87" s="12">
+        <v>37</v>
+      </c>
+      <c r="H87" s="1">
+        <v>20</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
         <v>21</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B88" s="1">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="C90" s="2">
-        <v>0</v>
-      </c>
-      <c r="D90" s="2">
+      <c r="C88" s="2">
+        <v>0</v>
+      </c>
+      <c r="D88" s="2">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E88" s="2">
         <v>3</v>
       </c>
-      <c r="F90" s="8">
+      <c r="F88" s="6">
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G88" s="9">
+        <v>38</v>
+      </c>
+      <c r="H88" s="1">
+        <v>18</v>
+      </c>
+      <c r="I88">
         <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
+    <row r="89" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
         <v>17</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B89" s="1">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C89" s="2">
         <v>13</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D89" s="2">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E89" s="2">
         <v>13</v>
       </c>
-      <c r="F91" s="8">
+      <c r="F89" s="6">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G89" s="12">
+        <v>48</v>
+      </c>
+      <c r="H89" s="1">
+        <v>22</v>
+      </c>
+      <c r="I89">
         <f t="shared" si="8"/>
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
+    <row r="90" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
         <v>18</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B90" s="1">
         <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C90" s="2">
         <v>16</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D90" s="2">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E90" s="2">
         <v>9</v>
       </c>
-      <c r="F92" s="8">
+      <c r="F90" s="6">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="G92" s="2">
-        <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
+      <c r="G90" s="12">
+        <v>50</v>
+      </c>
+      <c r="H90" s="1">
+        <v>28</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
         <v>19</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B91" s="1">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C91" s="2">
         <v>6</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D91" s="2">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="E93" s="2">
-        <v>0</v>
-      </c>
-      <c r="F93" s="8">
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+      <c r="F91" s="6">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="G93" s="2">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
+      <c r="G91" s="12">
+        <v>33</v>
+      </c>
+      <c r="H91" s="1">
+        <v>7</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
         <v>10</v>
       </c>
-      <c r="B94" s="1">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="C94" s="2">
+      <c r="B92" s="1">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="C92" s="2">
         <v>17</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D92" s="2">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="E94" s="2">
-        <v>0</v>
-      </c>
-      <c r="F94" s="8">
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+      <c r="F92" s="6">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="G94" s="2">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
+      <c r="G92" s="12">
+        <v>43</v>
+      </c>
+      <c r="H92" s="1">
+        <v>19</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
         <v>13</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B93" s="1">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C93" s="2">
         <v>10</v>
       </c>
-      <c r="D95" s="2">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="E95" s="2">
+      <c r="D93" s="2">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="E93" s="2">
         <v>7</v>
       </c>
-      <c r="F95" s="8">
+      <c r="F93" s="6">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="G95" s="2">
-        <f t="shared" si="8"/>
+      <c r="G93" s="9">
         <v>52</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
+      <c r="H93" s="1">
+        <v>24</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
         <v>23</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B94" s="1">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C94" s="2">
         <v>6</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D94" s="2">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="E96" s="2">
-        <v>0</v>
-      </c>
-      <c r="F96" s="8">
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="6">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="G96" s="2">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
+      <c r="G94" s="9">
+        <v>48</v>
+      </c>
+      <c r="H94" s="1">
+        <v>23</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
         <v>17</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B95" s="1">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C95" s="2">
         <v>9</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D95" s="2">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E95" s="2">
         <v>8</v>
       </c>
-      <c r="F97" s="8">
+      <c r="F95" s="6">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
-      <c r="G97" s="2">
-        <f t="shared" si="8"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
+      <c r="G95" s="12">
+        <v>36</v>
+      </c>
+      <c r="H95" s="1">
+        <v>22</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
         <v>16</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B96" s="1">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="C98" s="2">
-        <v>0</v>
-      </c>
-      <c r="D98" s="2">
+      <c r="C96" s="2">
+        <v>0</v>
+      </c>
+      <c r="D96" s="2">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E96" s="2">
         <v>9</v>
       </c>
-      <c r="F98" s="8">
-        <f t="shared" ref="F98:F121" si="9">SUM(E98+40)</f>
+      <c r="F96" s="6">
+        <f t="shared" ref="F96:F119" si="9">SUM(E96+40)</f>
         <v>49</v>
       </c>
-      <c r="G98" s="2">
-        <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
+      <c r="G96" s="12">
+        <v>41</v>
+      </c>
+      <c r="H96" s="1">
+        <v>27</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
         <v>8</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B97" s="1">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C97" s="2">
         <v>10</v>
       </c>
-      <c r="D99" s="2">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="E99" s="2">
+      <c r="D97" s="2">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="E97" s="2">
         <v>2</v>
       </c>
-      <c r="F99" s="8">
+      <c r="F97" s="6">
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="G99" s="2">
-        <f t="shared" si="8"/>
+      <c r="G97" s="9">
         <v>47</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
+      <c r="H97" s="1">
+        <v>23</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="8"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
         <v>17</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B98" s="1">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="C100" s="2">
-        <v>20</v>
-      </c>
-      <c r="D100" s="2">
+      <c r="C98" s="2">
+        <v>20</v>
+      </c>
+      <c r="D98" s="2">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E98" s="2">
         <v>10</v>
       </c>
-      <c r="F100" s="8">
+      <c r="F98" s="6">
         <f t="shared" si="9"/>
         <v>50</v>
       </c>
-      <c r="G100" s="2">
-        <f t="shared" si="8"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
-        <v>15</v>
-      </c>
-      <c r="B101" s="1">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="C101" s="2">
-        <v>15</v>
-      </c>
-      <c r="D101" s="2">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="E101" s="2">
+      <c r="G98" s="12">
+        <v>51</v>
+      </c>
+      <c r="H98" s="1">
+        <v>27</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>15</v>
+      </c>
+      <c r="B99" s="1">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="C99" s="2">
+        <v>15</v>
+      </c>
+      <c r="D99" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="E99" s="2">
         <v>9</v>
       </c>
-      <c r="F101" s="8">
+      <c r="F99" s="6">
         <f t="shared" si="9"/>
         <v>49</v>
       </c>
-      <c r="G101" s="2">
-        <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
+      <c r="G99" s="12">
+        <v>41</v>
+      </c>
+      <c r="H99" s="1">
+        <v>24</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
         <v>19</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B100" s="1">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C100" s="2">
         <v>5</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D100" s="2">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E100" s="2">
         <v>8</v>
       </c>
-      <c r="F102" s="8">
+      <c r="F100" s="6">
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="G102" s="2">
-        <f t="shared" si="8"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
+      <c r="G100" s="12">
+        <v>33</v>
+      </c>
+      <c r="H100" s="1">
+        <v>15</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
         <v>23</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B101" s="1">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C101" s="2">
         <v>13</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D101" s="2">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="E103" s="2">
-        <v>0</v>
-      </c>
-      <c r="F103" s="8">
+      <c r="E101" s="2">
+        <v>0</v>
+      </c>
+      <c r="F101" s="6">
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="G103" s="2">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
+      <c r="G101" s="12">
+        <v>54</v>
+      </c>
+      <c r="H101" s="1">
+        <v>24</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
         <v>18</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B102" s="1">
         <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="C104" s="2">
-        <v>0</v>
-      </c>
-      <c r="D104" s="2">
+      <c r="C102" s="2">
+        <v>0</v>
+      </c>
+      <c r="D102" s="2">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="E104" s="2">
-        <v>0</v>
-      </c>
-      <c r="F104" s="8">
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
+      <c r="F102" s="6">
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="G104" s="2">
-        <f t="shared" si="8"/>
+      <c r="G102" s="9">
+        <v>42</v>
+      </c>
+      <c r="H102" s="1">
+        <v>18</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>17</v>
+      </c>
+      <c r="B103" s="1">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E103" s="2">
+        <v>9</v>
+      </c>
+      <c r="F103" s="6">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="G103" s="12">
         <v>45</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H103" s="1">
+        <v>21</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>15</v>
+      </c>
+      <c r="B104" s="1">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="C104" s="2">
+        <v>12</v>
+      </c>
+      <c r="D104" s="2">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="E104" s="2">
+        <v>0</v>
+      </c>
+      <c r="F104" s="6">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G104" s="9">
+        <v>42</v>
+      </c>
+      <c r="H104" s="1">
+        <v>20</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" si="6"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C105" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D105" s="2">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E105" s="2">
         <v>9</v>
       </c>
-      <c r="F105" s="8">
+      <c r="F105" s="6">
         <f t="shared" si="9"/>
         <v>49</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G105" s="12">
+        <v>59</v>
+      </c>
+      <c r="H105" s="1">
+        <v>25</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="8"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>20</v>
+      </c>
+      <c r="B106" s="1">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0</v>
+      </c>
+      <c r="D106" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E106" s="2">
+        <v>6</v>
+      </c>
+      <c r="F106" s="6">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="G106" s="9">
+        <v>44</v>
+      </c>
+      <c r="H106" s="1">
+        <v>19</v>
+      </c>
+      <c r="I106">
         <f t="shared" si="8"/>
         <v>54</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
-        <v>15</v>
-      </c>
-      <c r="B106" s="1">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="C106" s="2">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-      <c r="E106" s="2">
-        <v>0</v>
-      </c>
-      <c r="F106" s="8">
+    <row r="107" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>15</v>
+      </c>
+      <c r="B107" s="1">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="C107" s="2">
+        <v>6</v>
+      </c>
+      <c r="D107" s="2">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0</v>
+      </c>
+      <c r="F107" s="6">
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="G106" s="2">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
+      <c r="G107" s="12">
+        <v>33</v>
+      </c>
+      <c r="H107" s="1">
+        <v>17</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
         <v>24</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B108" s="1">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="C107" s="2">
-        <v>20</v>
-      </c>
-      <c r="D107" s="2">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="E107" s="2">
+      <c r="C108" s="2">
+        <v>22</v>
+      </c>
+      <c r="D108" s="2">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="E108" s="2">
+        <v>0</v>
+      </c>
+      <c r="F108" s="6">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G108" s="9">
+        <v>53</v>
+      </c>
+      <c r="H108" s="1">
+        <v>23</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>22</v>
+      </c>
+      <c r="B109" s="1">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="C109" s="2">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="E109" s="2">
+        <v>7</v>
+      </c>
+      <c r="F109" s="6">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+      <c r="G109" s="9">
+        <v>52</v>
+      </c>
+      <c r="H109" s="1">
+        <v>24</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>19</v>
+      </c>
+      <c r="B110" s="1">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="C110" s="2">
         <v>9</v>
       </c>
-      <c r="F107" s="8">
+      <c r="D110" s="2">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="E110" s="2">
+        <v>0</v>
+      </c>
+      <c r="F110" s="6">
         <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G110" s="9">
         <v>49</v>
       </c>
-      <c r="G107" s="2">
-        <f t="shared" si="8"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
-        <v>20</v>
-      </c>
-      <c r="B108" s="1">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="C108" s="2">
-        <v>0</v>
-      </c>
-      <c r="D108" s="2">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="E108" s="2">
+      <c r="H110" s="1">
+        <v>15</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="8"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>19</v>
+      </c>
+      <c r="B111" s="1">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="C111" s="2">
+        <v>10</v>
+      </c>
+      <c r="D111" s="2">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="E111" s="2">
+        <v>8</v>
+      </c>
+      <c r="F111" s="6">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="G111" s="12">
+        <v>31</v>
+      </c>
+      <c r="H111" s="1">
+        <v>19</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>16</v>
+      </c>
+      <c r="B112" s="1">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="C112" s="2">
+        <v>15</v>
+      </c>
+      <c r="D112" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="E112" s="2">
+        <v>12</v>
+      </c>
+      <c r="F112" s="6">
+        <f t="shared" si="9"/>
+        <v>52</v>
+      </c>
+      <c r="G112" s="12">
+        <v>49</v>
+      </c>
+      <c r="H112" s="1">
+        <v>26</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="8"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>15</v>
+      </c>
+      <c r="B113" s="1">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="C113" s="2">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="E113" s="2">
+        <v>11</v>
+      </c>
+      <c r="F113" s="6">
+        <f t="shared" si="9"/>
+        <v>51</v>
+      </c>
+      <c r="G113" s="12">
+        <v>46</v>
+      </c>
+      <c r="H113" s="1">
+        <v>26</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>18</v>
+      </c>
+      <c r="B114" s="1">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="C114" s="2">
+        <v>15</v>
+      </c>
+      <c r="D114" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="E114" s="2">
+        <v>7</v>
+      </c>
+      <c r="F114" s="6">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+      <c r="G114" s="12">
+        <v>59</v>
+      </c>
+      <c r="H114" s="1">
+        <v>28</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="8"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>15</v>
+      </c>
+      <c r="B115" s="1">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="C115" s="2">
+        <v>15</v>
+      </c>
+      <c r="D115" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="E115" s="2">
         <v>6</v>
       </c>
-      <c r="F108" s="8">
+      <c r="F115" s="6">
         <f t="shared" si="9"/>
         <v>46</v>
       </c>
-      <c r="G108" s="2">
-        <f t="shared" si="8"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
-        <v>15</v>
-      </c>
-      <c r="B109" s="1">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="C109" s="2">
+      <c r="G115" s="11">
+        <v>42</v>
+      </c>
+      <c r="H115" s="1">
+        <v>20</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>20</v>
+      </c>
+      <c r="B116" s="1">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="C116" s="2">
+        <v>16</v>
+      </c>
+      <c r="D116" s="2">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="E116" s="2">
         <v>6</v>
       </c>
-      <c r="D109" s="2">
-        <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="E109" s="2">
-        <v>0</v>
-      </c>
-      <c r="F109" s="8">
+      <c r="F116" s="6">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="G116" s="12">
+        <v>57</v>
+      </c>
+      <c r="H116" s="1">
+        <v>28</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="8"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>18</v>
+      </c>
+      <c r="B117" s="1">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="C117" s="2">
+        <v>16</v>
+      </c>
+      <c r="D117" s="2">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="E117" s="2">
+        <v>6</v>
+      </c>
+      <c r="F117" s="6">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="G117" s="12">
+        <v>50</v>
+      </c>
+      <c r="H117" s="1">
+        <v>28</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>21</v>
+      </c>
+      <c r="B118" s="1">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="C118" s="2">
+        <v>13</v>
+      </c>
+      <c r="D118" s="2">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="E118" s="2">
+        <v>4</v>
+      </c>
+      <c r="F118" s="6">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="G118" s="9">
+        <v>53</v>
+      </c>
+      <c r="H118" s="1">
+        <v>23</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>0</v>
+      </c>
+      <c r="B119" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C119" s="2">
+        <v>0</v>
+      </c>
+      <c r="D119" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E119" s="2">
+        <v>0</v>
+      </c>
+      <c r="F119" s="6">
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="G109" s="2">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
+      <c r="G119" s="9">
+        <v>14</v>
+      </c>
+      <c r="H119" s="1">
+        <v>10</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="8"/>
         <v>24</v>
-      </c>
-      <c r="B110" s="1">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="C110" s="2">
-        <v>22</v>
-      </c>
-      <c r="D110" s="2">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="E110" s="2">
-        <v>0</v>
-      </c>
-      <c r="F110" s="8">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G110" s="2">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
-        <v>22</v>
-      </c>
-      <c r="B111" s="1">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="C111" s="2">
-        <v>12</v>
-      </c>
-      <c r="D111" s="2">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-      <c r="E111" s="2">
-        <v>7</v>
-      </c>
-      <c r="F111" s="8">
-        <f t="shared" si="9"/>
-        <v>47</v>
-      </c>
-      <c r="G111" s="2">
-        <f t="shared" si="8"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
-        <v>19</v>
-      </c>
-      <c r="B112" s="1">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="C112" s="2">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="E112" s="2">
-        <v>0</v>
-      </c>
-      <c r="F112" s="8">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G112" s="2">
-        <f t="shared" si="8"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
-        <v>19</v>
-      </c>
-      <c r="B113" s="1">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="C113" s="2">
-        <v>10</v>
-      </c>
-      <c r="D113" s="2">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="E113" s="2">
-        <v>8</v>
-      </c>
-      <c r="F113" s="8">
-        <f t="shared" si="9"/>
-        <v>48</v>
-      </c>
-      <c r="G113" s="2">
-        <f t="shared" si="8"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
-        <v>16</v>
-      </c>
-      <c r="B114" s="1">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="C114" s="2">
-        <v>15</v>
-      </c>
-      <c r="D114" s="2">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="E114" s="2">
-        <v>12</v>
-      </c>
-      <c r="F114" s="8">
-        <f t="shared" si="9"/>
-        <v>52</v>
-      </c>
-      <c r="G114" s="2">
-        <f t="shared" si="8"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="1">
-        <v>15</v>
-      </c>
-      <c r="B115" s="1">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="C115" s="2">
-        <v>12</v>
-      </c>
-      <c r="D115" s="2">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-      <c r="E115" s="2">
-        <v>11</v>
-      </c>
-      <c r="F115" s="8">
-        <f t="shared" si="9"/>
-        <v>51</v>
-      </c>
-      <c r="G115" s="2">
-        <f t="shared" si="8"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="1">
-        <v>18</v>
-      </c>
-      <c r="B116" s="1">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="C116" s="2">
-        <v>15</v>
-      </c>
-      <c r="D116" s="2">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="E116" s="2">
-        <v>7</v>
-      </c>
-      <c r="F116" s="8">
-        <f t="shared" si="9"/>
-        <v>47</v>
-      </c>
-      <c r="G116" s="2">
-        <f t="shared" si="8"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="1">
-        <v>15</v>
-      </c>
-      <c r="B117" s="1">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="C117" s="2">
-        <v>15</v>
-      </c>
-      <c r="D117" s="2">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="E117" s="2">
-        <v>6</v>
-      </c>
-      <c r="F117" s="8">
-        <f t="shared" si="9"/>
-        <v>46</v>
-      </c>
-      <c r="G117" s="2">
-        <f t="shared" si="8"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="1">
-        <v>20</v>
-      </c>
-      <c r="B118" s="1">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="C118" s="2">
-        <v>16</v>
-      </c>
-      <c r="D118" s="2">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="E118" s="2">
-        <v>6</v>
-      </c>
-      <c r="F118" s="8">
-        <f t="shared" si="9"/>
-        <v>46</v>
-      </c>
-      <c r="G118" s="2">
-        <f t="shared" si="8"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="1">
-        <v>18</v>
-      </c>
-      <c r="B119" s="1">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="C119" s="2">
-        <v>16</v>
-      </c>
-      <c r="D119" s="2">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="E119" s="2">
-        <v>6</v>
-      </c>
-      <c r="F119" s="8">
-        <f t="shared" si="9"/>
-        <v>46</v>
-      </c>
-      <c r="G119" s="2">
-        <f t="shared" si="8"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="1">
-        <v>21</v>
-      </c>
-      <c r="B120" s="1">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="C120" s="2">
-        <v>13</v>
-      </c>
-      <c r="D120" s="2">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="E120" s="2">
-        <v>4</v>
-      </c>
-      <c r="F120" s="8">
-        <f t="shared" si="9"/>
-        <v>44</v>
-      </c>
-      <c r="G120" s="2">
-        <f t="shared" si="8"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="1">
-        <v>0</v>
-      </c>
-      <c r="B121" s="1">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="C121" s="2">
-        <v>0</v>
-      </c>
-      <c r="D121" s="2">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="E121" s="2">
-        <v>0</v>
-      </c>
-      <c r="F121" s="8">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G121" s="2">
-        <f t="shared" si="8"/>
-        <v>45</v>
       </c>
     </row>
   </sheetData>
